--- a/state_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/state_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U231"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1412,7 +1412,7 @@
         <v>0.04255</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0460403601874938</v>
+        <v>0.0460463574586058</v>
       </c>
       <c r="H12" t="n">
         <v>0.242833385157284</v>
@@ -1493,7 +1493,7 @@
         <v>0.04255</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0460403601874938</v>
+        <v>0.0460463574586058</v>
       </c>
       <c r="H13" t="n">
         <v>0.242833385157284</v>
@@ -1570,7 +1570,7 @@
         <v>0.1665</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2653</v>
+        <v>0.265316666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0.98</v>
@@ -1647,7 +1647,7 @@
         <v>0.1665</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2653</v>
+        <v>0.265316666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0.98</v>
@@ -2230,7 +2230,7 @@
         <v>0.03843</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0419981662571103</v>
+        <v>0.042042406801322</v>
       </c>
       <c r="H22" t="n">
         <v>0.242833385157284</v>
@@ -2311,7 +2311,7 @@
         <v>0.03843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0419981662571103</v>
+        <v>0.042042406801322</v>
       </c>
       <c r="H23" t="n">
         <v>0.242833385157284</v>
@@ -2392,7 +2392,7 @@
         <v>0.14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.208687701792602</v>
+        <v>0.208722672527528</v>
       </c>
       <c r="H24" t="n">
         <v>0.91</v>
@@ -2473,7 +2473,7 @@
         <v>0.14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.208687701792602</v>
+        <v>0.208722672527528</v>
       </c>
       <c r="H25" t="n">
         <v>0.91</v>
@@ -2550,7 +2550,7 @@
         <v>0.1645</v>
       </c>
       <c r="G26" t="n">
-        <v>0.24995</v>
+        <v>0.249975</v>
       </c>
       <c r="H26" t="n">
         <v>0.98</v>
@@ -2627,7 +2627,7 @@
         <v>0.1645</v>
       </c>
       <c r="G27" t="n">
-        <v>0.24995</v>
+        <v>0.249975</v>
       </c>
       <c r="H27" t="n">
         <v>0.98</v>
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8685</v>
+        <v>0.8</v>
       </c>
       <c r="G28" t="n">
-        <v>1.18488948734358</v>
+        <v>1.16560234612883</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
@@ -3291,7 +3291,7 @@
         <v>0.04247</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0492882097582388</v>
+        <v>0.0493293637528544</v>
       </c>
       <c r="H35" t="n">
         <v>0.242833385157284</v>
@@ -3372,7 +3372,7 @@
         <v>0.04247</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0492882097582388</v>
+        <v>0.0493293637528544</v>
       </c>
       <c r="H36" t="n">
         <v>0.242833385157284</v>
@@ -3453,7 +3453,7 @@
         <v>0.145</v>
       </c>
       <c r="G37" t="n">
-        <v>0.223416452287804</v>
+        <v>0.223432394828726</v>
       </c>
       <c r="H37" t="n">
         <v>0.91</v>
@@ -3534,7 +3534,7 @@
         <v>0.145</v>
       </c>
       <c r="G38" t="n">
-        <v>0.223416452287804</v>
+        <v>0.223432394828726</v>
       </c>
       <c r="H38" t="n">
         <v>0.91</v>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.178</v>
+        <v>0.1785</v>
       </c>
       <c r="G39" t="n">
-        <v>0.267395348837209</v>
+        <v>0.267418604651163</v>
       </c>
       <c r="H39" t="n">
         <v>0.98</v>
@@ -3622,7 +3622,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.122</v>
+        <v>0.12225</v>
       </c>
       <c r="M39" t="n">
         <v>0.511</v>
@@ -3685,10 +3685,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.178</v>
+        <v>0.1785</v>
       </c>
       <c r="G40" t="n">
-        <v>0.267395348837209</v>
+        <v>0.267418604651163</v>
       </c>
       <c r="H40" t="n">
         <v>0.98</v>
@@ -3699,7 +3699,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.122</v>
+        <v>0.12225</v>
       </c>
       <c r="M40" t="n">
         <v>0.511</v>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.165</v>
+        <v>1.09</v>
       </c>
       <c r="G45" t="n">
-        <v>1.49381243551843</v>
+        <v>1.4559817778221</v>
       </c>
       <c r="H45" t="n">
-        <v>5.73785100533151</v>
+        <v>4.99462309660186</v>
       </c>
       <c r="I45" t="n">
         <v>3.88</v>
@@ -4660,7 +4660,7 @@
         <v>0.04653</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0520269214448056</v>
+        <v>0.0520614802194818</v>
       </c>
       <c r="H52" t="n">
         <v>0.135474996738477</v>
@@ -4741,7 +4741,7 @@
         <v>0.04653</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0520269214448056</v>
+        <v>0.0520614802194818</v>
       </c>
       <c r="H53" t="n">
         <v>0.135474996738477</v>
@@ -4822,7 +4822,7 @@
         <v>0.14</v>
       </c>
       <c r="G54" t="n">
-        <v>0.235679983183387</v>
+        <v>0.235694633085856</v>
       </c>
       <c r="H54" t="n">
         <v>0.881</v>
@@ -4903,7 +4903,7 @@
         <v>0.14</v>
       </c>
       <c r="G55" t="n">
-        <v>0.235679983183387</v>
+        <v>0.235694633085856</v>
       </c>
       <c r="H55" t="n">
         <v>0.881</v>
@@ -4980,7 +4980,7 @@
         <v>0.208</v>
       </c>
       <c r="G56" t="n">
-        <v>0.280760869565217</v>
+        <v>0.280771739130435</v>
       </c>
       <c r="H56" t="n">
         <v>0.992</v>
@@ -5057,7 +5057,7 @@
         <v>0.208</v>
       </c>
       <c r="G57" t="n">
-        <v>0.280760869565217</v>
+        <v>0.280771739130435</v>
       </c>
       <c r="H57" t="n">
         <v>0.992</v>
@@ -5443,13 +5443,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.165</v>
+        <v>1.09</v>
       </c>
       <c r="G62" t="n">
-        <v>1.51262181374251</v>
+        <v>1.47668268893099</v>
       </c>
       <c r="H62" t="n">
-        <v>5.73785100533151</v>
+        <v>4.99462309660186</v>
       </c>
       <c r="I62" t="n">
         <v>3.85</v>
@@ -6029,7 +6029,7 @@
         <v>0.04212</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0464652327937562</v>
+        <v>0.0464931223312142</v>
       </c>
       <c r="H69" t="n">
         <v>0.135474996738477</v>
@@ -6110,7 +6110,7 @@
         <v>0.04212</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0464652327937562</v>
+        <v>0.0464931223312142</v>
       </c>
       <c r="H70" t="n">
         <v>0.135474996738477</v>
@@ -6191,7 +6191,7 @@
         <v>0.14</v>
       </c>
       <c r="G71" t="n">
-        <v>0.238315497505823</v>
+        <v>0.238326559677075</v>
       </c>
       <c r="H71" t="n">
         <v>0.881</v>
@@ -6272,7 +6272,7 @@
         <v>0.14</v>
       </c>
       <c r="G72" t="n">
-        <v>0.238315497505823</v>
+        <v>0.238326559677075</v>
       </c>
       <c r="H72" t="n">
         <v>0.881</v>
@@ -6349,7 +6349,7 @@
         <v>0.21</v>
       </c>
       <c r="G73" t="n">
-        <v>0.295421052631579</v>
+        <v>0.295433333333333</v>
       </c>
       <c r="H73" t="n">
         <v>1.052</v>
@@ -6363,7 +6363,7 @@
         <v>0.114</v>
       </c>
       <c r="M73" t="n">
-        <v>0.56154</v>
+        <v>0.56152</v>
       </c>
       <c r="N73" t="n">
         <v>0.72778</v>
@@ -6426,7 +6426,7 @@
         <v>0.21</v>
       </c>
       <c r="G74" t="n">
-        <v>0.295421052631579</v>
+        <v>0.295433333333333</v>
       </c>
       <c r="H74" t="n">
         <v>1.052</v>
@@ -6440,7 +6440,7 @@
         <v>0.114</v>
       </c>
       <c r="M74" t="n">
-        <v>0.56154</v>
+        <v>0.56152</v>
       </c>
       <c r="N74" t="n">
         <v>0.72778</v>
@@ -6812,13 +6812,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="G79" t="n">
-        <v>1.52236998184157</v>
+        <v>1.43647568860445</v>
       </c>
       <c r="H79" t="n">
-        <v>5.73785100533151</v>
+        <v>4.99462309660186</v>
       </c>
       <c r="I79" t="n">
         <v>3.79</v>
@@ -6829,10 +6829,10 @@
         <v>1.1</v>
       </c>
       <c r="M79" t="n">
-        <v>2.44902</v>
+        <v>2.1441</v>
       </c>
       <c r="N79" t="n">
-        <v>3.24352</v>
+        <v>3.216</v>
       </c>
       <c r="O79" t="n">
         <v>1762563.938</v>
@@ -7398,7 +7398,7 @@
         <v>0.03858</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0410912672291358</v>
+        <v>0.0411182113585444</v>
       </c>
       <c r="H86" t="n">
         <v>0.135474996738477</v>
@@ -7479,7 +7479,7 @@
         <v>0.03858</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0410912672291358</v>
+        <v>0.0411182113585444</v>
       </c>
       <c r="H87" t="n">
         <v>0.135474996738477</v>
@@ -7560,7 +7560,7 @@
         <v>0.14</v>
       </c>
       <c r="G88" t="n">
-        <v>0.238121345386192</v>
+        <v>0.238130532613164</v>
       </c>
       <c r="H88" t="n">
         <v>0.881</v>
@@ -7641,7 +7641,7 @@
         <v>0.14</v>
       </c>
       <c r="G89" t="n">
-        <v>0.238121345386192</v>
+        <v>0.238130532613164</v>
       </c>
       <c r="H89" t="n">
         <v>0.881</v>
@@ -7715,10 +7715,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.215</v>
+        <v>0.2155</v>
       </c>
       <c r="G90" t="n">
-        <v>0.311830508474576</v>
+        <v>0.311859322033898</v>
       </c>
       <c r="H90" t="n">
         <v>1.052</v>
@@ -7732,10 +7732,10 @@
         <v>0.1115</v>
       </c>
       <c r="M90" t="n">
-        <v>0.6361599999999999</v>
+        <v>0.63637</v>
       </c>
       <c r="N90" t="n">
-        <v>0.76264</v>
+        <v>0.76257</v>
       </c>
       <c r="O90" t="n">
         <v>1762563.938</v>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.215</v>
+        <v>0.2155</v>
       </c>
       <c r="G91" t="n">
-        <v>0.311830508474576</v>
+        <v>0.311859322033898</v>
       </c>
       <c r="H91" t="n">
         <v>1.052</v>
@@ -7809,10 +7809,10 @@
         <v>0.1115</v>
       </c>
       <c r="M91" t="n">
-        <v>0.6361599999999999</v>
+        <v>0.63637</v>
       </c>
       <c r="N91" t="n">
-        <v>0.76264</v>
+        <v>0.76257</v>
       </c>
       <c r="O91" t="n">
         <v>1762563.938</v>
@@ -8181,16 +8181,16 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.26901</v>
+        <v>1.19</v>
       </c>
       <c r="G96" t="n">
-        <v>1.44174029150432</v>
+        <v>1.34242501494889</v>
       </c>
       <c r="H96" t="n">
-        <v>5.73785100533151</v>
+        <v>4.99462309660186</v>
       </c>
       <c r="I96" t="n">
-        <v>3.36598</v>
+        <v>3.36</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -8198,10 +8198,10 @@
         <v>1.1</v>
       </c>
       <c r="M96" t="n">
-        <v>1.818</v>
+        <v>1.706</v>
       </c>
       <c r="N96" t="n">
-        <v>3.05623</v>
+        <v>2.946</v>
       </c>
       <c r="O96" t="n">
         <v>1762563.938</v>
@@ -8767,7 +8767,7 @@
         <v>0.0328</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0355410516627732</v>
+        <v>0.0355558284872575</v>
       </c>
       <c r="H103" t="n">
         <v>0.135474996738477</v>
@@ -8848,7 +8848,7 @@
         <v>0.0328</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0355410516627732</v>
+        <v>0.0355558284872575</v>
       </c>
       <c r="H104" t="n">
         <v>0.135474996738477</v>
@@ -8929,7 +8929,7 @@
         <v>0.1464</v>
       </c>
       <c r="G105" t="n">
-        <v>0.260405227837495</v>
+        <v>0.260420095189243</v>
       </c>
       <c r="H105" t="n">
         <v>0.881</v>
@@ -9010,7 +9010,7 @@
         <v>0.1464</v>
       </c>
       <c r="G106" t="n">
-        <v>0.260405227837495</v>
+        <v>0.260420095189243</v>
       </c>
       <c r="H106" t="n">
         <v>0.881</v>
@@ -9087,7 +9087,7 @@
         <v>0.2265</v>
       </c>
       <c r="G107" t="n">
-        <v>0.324715628373277</v>
+        <v>0.324762233921086</v>
       </c>
       <c r="H107" t="n">
         <v>1.052</v>
@@ -9098,13 +9098,13 @@
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>0.0635</v>
+        <v>0.06355</v>
       </c>
       <c r="M107" t="n">
         <v>0.6637999999999999</v>
       </c>
       <c r="N107" t="n">
-        <v>0.7843</v>
+        <v>0.78416</v>
       </c>
       <c r="O107" t="n">
         <v>1762563.938</v>
@@ -9164,7 +9164,7 @@
         <v>0.2265</v>
       </c>
       <c r="G108" t="n">
-        <v>0.324715628373277</v>
+        <v>0.324762233921086</v>
       </c>
       <c r="H108" t="n">
         <v>1.052</v>
@@ -9175,13 +9175,13 @@
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
-        <v>0.0635</v>
+        <v>0.06355</v>
       </c>
       <c r="M108" t="n">
         <v>0.6637999999999999</v>
       </c>
       <c r="N108" t="n">
-        <v>0.7843</v>
+        <v>0.78416</v>
       </c>
       <c r="O108" t="n">
         <v>1762563.938</v>
@@ -9553,13 +9553,13 @@
         <v>0.9</v>
       </c>
       <c r="G113" t="n">
-        <v>1.13331186399256</v>
+        <v>1.05319083928151</v>
       </c>
       <c r="H113" t="n">
-        <v>5.73785100533151</v>
+        <v>4.99462309660186</v>
       </c>
       <c r="I113" t="n">
-        <v>3.05683</v>
+        <v>2.955</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -9567,10 +9567,10 @@
         <v>0.46</v>
       </c>
       <c r="M113" t="n">
-        <v>1.6615</v>
+        <v>1.6115</v>
       </c>
       <c r="N113" t="n">
-        <v>3.0012</v>
+        <v>2.118</v>
       </c>
       <c r="O113" t="n">
         <v>1762563.938</v>
@@ -10136,7 +10136,7 @@
         <v>0.01021</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0261965959710229</v>
+        <v>0.0262227937353688</v>
       </c>
       <c r="H120" t="n">
         <v>0.103239866445972</v>
@@ -10147,7 +10147,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00441</v>
+        <v>0.00445</v>
       </c>
       <c r="M120" t="n">
         <v>0.05835</v>
@@ -10217,7 +10217,7 @@
         <v>0.01021</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0261965959710229</v>
+        <v>0.0262227937353688</v>
       </c>
       <c r="H121" t="n">
         <v>0.103239866445972</v>
@@ -10228,7 +10228,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00441</v>
+        <v>0.00445</v>
       </c>
       <c r="M121" t="n">
         <v>0.05835</v>
@@ -10298,7 +10298,7 @@
         <v>0.1464</v>
       </c>
       <c r="G122" t="n">
-        <v>0.268718232172963</v>
+        <v>0.268740015288028</v>
       </c>
       <c r="H122" t="n">
         <v>1.07</v>
@@ -10309,7 +10309,7 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="M122" t="n">
         <v>0.6109</v>
@@ -10379,7 +10379,7 @@
         <v>0.1464</v>
       </c>
       <c r="G123" t="n">
-        <v>0.268718232172963</v>
+        <v>0.268740015288028</v>
       </c>
       <c r="H123" t="n">
         <v>1.07</v>
@@ -10390,7 +10390,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="M123" t="n">
         <v>0.6109</v>
@@ -10456,7 +10456,7 @@
         <v>0.2265</v>
       </c>
       <c r="G124" t="n">
-        <v>0.329227982220233</v>
+        <v>0.329288540400381</v>
       </c>
       <c r="H124" t="n">
         <v>1.12</v>
@@ -10467,7 +10467,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.02137</v>
+        <v>0.02179</v>
       </c>
       <c r="M124" t="n">
         <v>0.7040999999999999</v>
@@ -10533,7 +10533,7 @@
         <v>0.2265</v>
       </c>
       <c r="G125" t="n">
-        <v>0.329227982220233</v>
+        <v>0.329288540400381</v>
       </c>
       <c r="H125" t="n">
         <v>1.12</v>
@@ -10544,7 +10544,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.02137</v>
+        <v>0.02179</v>
       </c>
       <c r="M125" t="n">
         <v>0.7040999999999999</v>
@@ -10922,13 +10922,13 @@
         <v>0.484</v>
       </c>
       <c r="G130" t="n">
-        <v>0.932427225947924</v>
+        <v>0.874409764037496</v>
       </c>
       <c r="H130" t="n">
-        <v>3.05981677843773</v>
+        <v>3</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -10936,10 +10936,10 @@
         <v>0.46</v>
       </c>
       <c r="M130" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="N130" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="O130" t="n">
         <v>1762563.938</v>
@@ -11505,7 +11505,7 @@
         <v>0.01021</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0214662294600948</v>
+        <v>0.0214924272244407</v>
       </c>
       <c r="H137" t="n">
         <v>0.0730814919694633</v>
@@ -11516,7 +11516,7 @@
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>0.00441</v>
+        <v>0.00445</v>
       </c>
       <c r="M137" t="n">
         <v>0.04539</v>
@@ -11586,7 +11586,7 @@
         <v>0.01021</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0214662294600948</v>
+        <v>0.0214924272244407</v>
       </c>
       <c r="H138" t="n">
         <v>0.0730814919694633</v>
@@ -11597,7 +11597,7 @@
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
-        <v>0.00441</v>
+        <v>0.00445</v>
       </c>
       <c r="M138" t="n">
         <v>0.04539</v>
@@ -11667,7 +11667,7 @@
         <v>0.1224</v>
       </c>
       <c r="G139" t="n">
-        <v>0.262396328434494</v>
+        <v>0.262425724732602</v>
       </c>
       <c r="H139" t="n">
         <v>1.08</v>
@@ -11678,7 +11678,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="M139" t="n">
         <v>0.5969</v>
@@ -11748,7 +11748,7 @@
         <v>0.1224</v>
       </c>
       <c r="G140" t="n">
-        <v>0.262396328434494</v>
+        <v>0.262425724732602</v>
       </c>
       <c r="H140" t="n">
         <v>1.08</v>
@@ -11759,7 +11759,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.007990000000000001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="M140" t="n">
         <v>0.5969</v>
@@ -11822,10 +11822,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.2175</v>
+        <v>0.21775</v>
       </c>
       <c r="G141" t="n">
-        <v>0.319861315553567</v>
+        <v>0.319921873733714</v>
       </c>
       <c r="H141" t="n">
         <v>1.13</v>
@@ -11836,7 +11836,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.02137</v>
+        <v>0.02179</v>
       </c>
       <c r="M141" t="n">
         <v>0.6715</v>
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.2175</v>
+        <v>0.21775</v>
       </c>
       <c r="G142" t="n">
-        <v>0.319861315553567</v>
+        <v>0.319921873733714</v>
       </c>
       <c r="H142" t="n">
         <v>1.13</v>
@@ -11913,7 +11913,7 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.02137</v>
+        <v>0.02179</v>
       </c>
       <c r="M142" t="n">
         <v>0.6715</v>
@@ -12291,13 +12291,13 @@
         <v>0.575</v>
       </c>
       <c r="G147" t="n">
-        <v>0.885863599432572</v>
+        <v>0.8400603400296019</v>
       </c>
       <c r="H147" t="n">
-        <v>3.05981677843773</v>
+        <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
@@ -12305,7 +12305,7 @@
         <v>0.834</v>
       </c>
       <c r="M147" t="n">
-        <v>1.65</v>
+        <v>1.602</v>
       </c>
       <c r="N147" t="n">
         <v>1.7</v>
@@ -12874,7 +12874,7 @@
         <v>0.01632</v>
       </c>
       <c r="G154" t="n">
-        <v>0.023229404633857</v>
+        <v>0.0232583758286792</v>
       </c>
       <c r="H154" t="n">
         <v>0.0730814919694633</v>
@@ -12885,7 +12885,7 @@
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
-        <v>0.00466</v>
+        <v>0.00476</v>
       </c>
       <c r="M154" t="n">
         <v>0.0482</v>
@@ -12955,7 +12955,7 @@
         <v>0.01632</v>
       </c>
       <c r="G155" t="n">
-        <v>0.023229404633857</v>
+        <v>0.0232583758286792</v>
       </c>
       <c r="H155" t="n">
         <v>0.0730814919694633</v>
@@ -12966,7 +12966,7 @@
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
-        <v>0.00466</v>
+        <v>0.00476</v>
       </c>
       <c r="M155" t="n">
         <v>0.0482</v>
@@ -13036,7 +13036,7 @@
         <v>0.1775</v>
       </c>
       <c r="G156" t="n">
-        <v>0.301162095859219</v>
+        <v>0.301197942667525</v>
       </c>
       <c r="H156" t="n">
         <v>1.2</v>
@@ -13117,7 +13117,7 @@
         <v>0.1775</v>
       </c>
       <c r="G157" t="n">
-        <v>0.301162095859219</v>
+        <v>0.301197942667525</v>
       </c>
       <c r="H157" t="n">
         <v>1.2</v>
@@ -13194,7 +13194,7 @@
         <v>0.2325</v>
       </c>
       <c r="G158" t="n">
-        <v>0.353177982220233</v>
+        <v>0.353235207067048</v>
       </c>
       <c r="H158" t="n">
         <v>1.27</v>
@@ -13208,7 +13208,7 @@
         <v>0.0475</v>
       </c>
       <c r="M158" t="n">
-        <v>0.7444</v>
+        <v>0.74419</v>
       </c>
       <c r="N158" t="n">
         <v>1.015</v>
@@ -13271,7 +13271,7 @@
         <v>0.2325</v>
       </c>
       <c r="G159" t="n">
-        <v>0.353177982220233</v>
+        <v>0.353235207067048</v>
       </c>
       <c r="H159" t="n">
         <v>1.27</v>
@@ -13285,7 +13285,7 @@
         <v>0.0475</v>
       </c>
       <c r="M159" t="n">
-        <v>0.7444</v>
+        <v>0.74419</v>
       </c>
       <c r="N159" t="n">
         <v>1.015</v>
@@ -13903,13 +13903,13 @@
         <v>432</v>
       </c>
       <c r="G167" t="n">
-        <v>2221.29155868265</v>
+        <v>2054.80696093178</v>
       </c>
       <c r="H167" t="n">
         <v>61000</v>
       </c>
       <c r="I167" t="n">
-        <v>12100</v>
+        <v>8153.20883</v>
       </c>
       <c r="J167" t="n">
         <v>36.6666666666667</v>
@@ -13988,13 +13988,13 @@
         <v>432</v>
       </c>
       <c r="G168" t="n">
-        <v>2221.29155868265</v>
+        <v>2054.80696093178</v>
       </c>
       <c r="H168" t="n">
         <v>61000</v>
       </c>
       <c r="I168" t="n">
-        <v>12100</v>
+        <v>8153.20883</v>
       </c>
       <c r="J168" t="n">
         <v>36.6666666666667</v>
@@ -14073,13 +14073,13 @@
         <v>432</v>
       </c>
       <c r="G169" t="n">
-        <v>2221.29155868265</v>
+        <v>2054.80696093178</v>
       </c>
       <c r="H169" t="n">
         <v>61000</v>
       </c>
       <c r="I169" t="n">
-        <v>12100</v>
+        <v>8153.20883</v>
       </c>
       <c r="J169" t="n">
         <v>36.6666666666667</v>
@@ -14158,13 +14158,13 @@
         <v>432</v>
       </c>
       <c r="G170" t="n">
-        <v>2221.29155868265</v>
+        <v>2054.80696093178</v>
       </c>
       <c r="H170" t="n">
         <v>61000</v>
       </c>
       <c r="I170" t="n">
-        <v>12100</v>
+        <v>8153.20883</v>
       </c>
       <c r="J170" t="n">
         <v>36.6666666666667</v>
@@ -14243,7 +14243,7 @@
         <v>0.02371</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0293312408441161</v>
+        <v>0.0293657661744858</v>
       </c>
       <c r="H171" t="n">
         <v>0.0994033988405205</v>
@@ -14254,7 +14254,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.0123</v>
+        <v>0.01235</v>
       </c>
       <c r="M171" t="n">
         <v>0.05595</v>
@@ -14324,7 +14324,7 @@
         <v>0.02371</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0293312408441161</v>
+        <v>0.0293657661744858</v>
       </c>
       <c r="H172" t="n">
         <v>0.0994033988405205</v>
@@ -14335,7 +14335,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>0.0123</v>
+        <v>0.01235</v>
       </c>
       <c r="M172" t="n">
         <v>0.05595</v>
@@ -14405,7 +14405,7 @@
         <v>0.1645</v>
       </c>
       <c r="G173" t="n">
-        <v>0.305441203590378</v>
+        <v>0.305503749115735</v>
       </c>
       <c r="H173" t="n">
         <v>1.2</v>
@@ -14486,7 +14486,7 @@
         <v>0.1645</v>
       </c>
       <c r="G174" t="n">
-        <v>0.305441203590378</v>
+        <v>0.305503749115735</v>
       </c>
       <c r="H174" t="n">
         <v>1.2</v>
@@ -14563,7 +14563,7 @@
         <v>0.2325</v>
       </c>
       <c r="G175" t="n">
-        <v>0.363646298385536</v>
+        <v>0.363701551941328</v>
       </c>
       <c r="H175" t="n">
         <v>1.27</v>
@@ -14577,7 +14577,7 @@
         <v>0.0525</v>
       </c>
       <c r="M175" t="n">
-        <v>0.7975</v>
+        <v>0.79736</v>
       </c>
       <c r="N175" t="n">
         <v>1.018</v>
@@ -14640,7 +14640,7 @@
         <v>0.2325</v>
       </c>
       <c r="G176" t="n">
-        <v>0.363646298385536</v>
+        <v>0.363701551941328</v>
       </c>
       <c r="H176" t="n">
         <v>1.27</v>
@@ -14654,7 +14654,7 @@
         <v>0.0525</v>
       </c>
       <c r="M176" t="n">
-        <v>0.7975</v>
+        <v>0.79736</v>
       </c>
       <c r="N176" t="n">
         <v>1.018</v>
@@ -15272,13 +15272,13 @@
         <v>420</v>
       </c>
       <c r="G184" t="n">
-        <v>2319.44904272812</v>
+        <v>2150.14267213401</v>
       </c>
       <c r="H184" t="n">
         <v>61000</v>
       </c>
       <c r="I184" t="n">
-        <v>12690</v>
+        <v>8348.529710000001</v>
       </c>
       <c r="J184" t="n">
         <v>37.2881355932203</v>
@@ -15357,13 +15357,13 @@
         <v>420</v>
       </c>
       <c r="G185" t="n">
-        <v>2319.44904272812</v>
+        <v>2150.14267213401</v>
       </c>
       <c r="H185" t="n">
         <v>61000</v>
       </c>
       <c r="I185" t="n">
-        <v>12690</v>
+        <v>8348.529710000001</v>
       </c>
       <c r="J185" t="n">
         <v>37.2881355932203</v>
@@ -15442,13 +15442,13 @@
         <v>420</v>
       </c>
       <c r="G186" t="n">
-        <v>2319.44904272812</v>
+        <v>2150.14267213401</v>
       </c>
       <c r="H186" t="n">
         <v>61000</v>
       </c>
       <c r="I186" t="n">
-        <v>12690</v>
+        <v>8348.529710000001</v>
       </c>
       <c r="J186" t="n">
         <v>37.2881355932203</v>
@@ -15527,13 +15527,13 @@
         <v>420</v>
       </c>
       <c r="G187" t="n">
-        <v>2319.44904272812</v>
+        <v>2150.14267213401</v>
       </c>
       <c r="H187" t="n">
         <v>61000</v>
       </c>
       <c r="I187" t="n">
-        <v>12690</v>
+        <v>8348.529710000001</v>
       </c>
       <c r="J187" t="n">
         <v>37.2881355932203</v>
@@ -15612,7 +15612,7 @@
         <v>0.03257</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0342431043521124</v>
+        <v>0.03426376842049</v>
       </c>
       <c r="H188" t="n">
         <v>0.0994033988405205</v>
@@ -15623,7 +15623,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
-        <v>0.01372</v>
+        <v>0.0138</v>
       </c>
       <c r="M188" t="n">
         <v>0.05706</v>
@@ -15693,7 +15693,7 @@
         <v>0.03257</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0342431043521124</v>
+        <v>0.03426376842049</v>
       </c>
       <c r="H189" t="n">
         <v>0.0994033988405205</v>
@@ -15704,7 +15704,7 @@
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
-        <v>0.01372</v>
+        <v>0.0138</v>
       </c>
       <c r="M189" t="n">
         <v>0.05706</v>
@@ -15774,7 +15774,7 @@
         <v>0.154</v>
       </c>
       <c r="G190" t="n">
-        <v>0.304306160137568</v>
+        <v>0.304372807481606</v>
       </c>
       <c r="H190" t="n">
         <v>1.2</v>
@@ -15855,7 +15855,7 @@
         <v>0.154</v>
       </c>
       <c r="G191" t="n">
-        <v>0.304306160137568</v>
+        <v>0.304372807481606</v>
       </c>
       <c r="H191" t="n">
         <v>1.2</v>
@@ -15932,7 +15932,7 @@
         <v>0.23</v>
       </c>
       <c r="G192" t="n">
-        <v>0.367709155944669</v>
+        <v>0.367738289512111</v>
       </c>
       <c r="H192" t="n">
         <v>1.27</v>
@@ -16009,7 +16009,7 @@
         <v>0.23</v>
       </c>
       <c r="G193" t="n">
-        <v>0.367709155944669</v>
+        <v>0.367738289512111</v>
       </c>
       <c r="H193" t="n">
         <v>1.27</v>
@@ -16641,7 +16641,7 @@
         <v>460</v>
       </c>
       <c r="G201" t="n">
-        <v>2041.601585101</v>
+        <v>1872.29521450689</v>
       </c>
       <c r="H201" t="n">
         <v>61000</v>
@@ -16726,7 +16726,7 @@
         <v>460</v>
       </c>
       <c r="G202" t="n">
-        <v>2041.601585101</v>
+        <v>1872.29521450689</v>
       </c>
       <c r="H202" t="n">
         <v>61000</v>
@@ -16811,7 +16811,7 @@
         <v>460</v>
       </c>
       <c r="G203" t="n">
-        <v>2041.601585101</v>
+        <v>1872.29521450689</v>
       </c>
       <c r="H203" t="n">
         <v>61000</v>
@@ -16896,7 +16896,7 @@
         <v>460</v>
       </c>
       <c r="G204" t="n">
-        <v>2041.601585101</v>
+        <v>1872.29521450689</v>
       </c>
       <c r="H204" t="n">
         <v>61000</v>
@@ -16981,7 +16981,7 @@
         <v>0.03597</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0395296601871208</v>
+        <v>0.0395376343223187</v>
       </c>
       <c r="H205" t="n">
         <v>0.124827230282042</v>
@@ -17062,7 +17062,7 @@
         <v>0.03597</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0395296601871208</v>
+        <v>0.0395376343223187</v>
       </c>
       <c r="H206" t="n">
         <v>0.124827230282042</v>
@@ -17143,7 +17143,7 @@
         <v>0.141</v>
       </c>
       <c r="G207" t="n">
-        <v>0.284398389930137</v>
+        <v>0.284478159309567</v>
       </c>
       <c r="H207" t="n">
         <v>1.2</v>
@@ -17224,7 +17224,7 @@
         <v>0.141</v>
       </c>
       <c r="G208" t="n">
-        <v>0.284398389930137</v>
+        <v>0.284478159309567</v>
       </c>
       <c r="H208" t="n">
         <v>1.2</v>
@@ -17301,7 +17301,7 @@
         <v>0.187</v>
       </c>
       <c r="G209" t="n">
-        <v>0.346238965591833</v>
+        <v>0.346253910041641</v>
       </c>
       <c r="H209" t="n">
         <v>1.27</v>
@@ -17378,7 +17378,7 @@
         <v>0.187</v>
       </c>
       <c r="G210" t="n">
-        <v>0.346238965591833</v>
+        <v>0.346253910041641</v>
       </c>
       <c r="H210" t="n">
         <v>1.27</v>
@@ -18010,7 +18010,7 @@
         <v>510</v>
       </c>
       <c r="G218" t="n">
-        <v>2193.06128984138</v>
+        <v>2017.81434484047</v>
       </c>
       <c r="H218" t="n">
         <v>61000</v>
@@ -18095,7 +18095,7 @@
         <v>510</v>
       </c>
       <c r="G219" t="n">
-        <v>2193.06128984138</v>
+        <v>2017.81434484047</v>
       </c>
       <c r="H219" t="n">
         <v>61000</v>
@@ -18180,7 +18180,7 @@
         <v>510</v>
       </c>
       <c r="G220" t="n">
-        <v>2193.06128984138</v>
+        <v>2017.81434484047</v>
       </c>
       <c r="H220" t="n">
         <v>61000</v>
@@ -18265,7 +18265,7 @@
         <v>510</v>
       </c>
       <c r="G221" t="n">
-        <v>2193.06128984138</v>
+        <v>2017.81434484047</v>
       </c>
       <c r="H221" t="n">
         <v>61000</v>
@@ -18350,7 +18350,7 @@
         <v>0.0364</v>
       </c>
       <c r="G222" t="n">
-        <v>0.0425522572437257</v>
+        <v>0.0425605380764312</v>
       </c>
       <c r="H222" t="n">
         <v>0.173059534175358</v>
@@ -18431,7 +18431,7 @@
         <v>0.0364</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0425522572437257</v>
+        <v>0.0425605380764312</v>
       </c>
       <c r="H223" t="n">
         <v>0.173059534175358</v>
@@ -18512,7 +18512,7 @@
         <v>0.148</v>
       </c>
       <c r="G224" t="n">
-        <v>0.286601891151139</v>
+        <v>0.286706267787671</v>
       </c>
       <c r="H224" t="n">
         <v>1.2</v>
@@ -18593,7 +18593,7 @@
         <v>0.148</v>
       </c>
       <c r="G225" t="n">
-        <v>0.286601891151139</v>
+        <v>0.286706267787671</v>
       </c>
       <c r="H225" t="n">
         <v>1.2</v>
@@ -18670,7 +18670,7 @@
         <v>0.232</v>
       </c>
       <c r="G226" t="n">
-        <v>0.353299981928388</v>
+        <v>0.353315450744857</v>
       </c>
       <c r="H226" t="n">
         <v>1.27</v>
@@ -18747,7 +18747,7 @@
         <v>0.232</v>
       </c>
       <c r="G227" t="n">
-        <v>0.353299981928388</v>
+        <v>0.353315450744857</v>
       </c>
       <c r="H227" t="n">
         <v>1.27</v>
@@ -19106,6 +19106,1375 @@
         </is>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.989659090909091</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I232" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N232" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.0360877192982456</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.06985</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.05181</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.05982</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.0360877192982456</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.06985</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.05181</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.05982</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>510</v>
+      </c>
+      <c r="G235" t="n">
+        <v>2316.46213997014</v>
+      </c>
+      <c r="H235" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I235" t="n">
+        <v>8548.071480000001</v>
+      </c>
+      <c r="J235" t="n">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K235" t="n">
+        <v>73.68421052631579</v>
+      </c>
+      <c r="L235" t="n">
+        <v>570</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1681</v>
+      </c>
+      <c r="N235" t="n">
+        <v>4176.6</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F236" t="n">
+        <v>510</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2316.46213997014</v>
+      </c>
+      <c r="H236" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I236" t="n">
+        <v>8548.071480000001</v>
+      </c>
+      <c r="J236" t="n">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K236" t="n">
+        <v>73.68421052631579</v>
+      </c>
+      <c r="L236" t="n">
+        <v>570</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1681</v>
+      </c>
+      <c r="N236" t="n">
+        <v>4176.6</v>
+      </c>
+      <c r="O236" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P236" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F237" t="n">
+        <v>510</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2316.46213997014</v>
+      </c>
+      <c r="H237" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I237" t="n">
+        <v>8548.071480000001</v>
+      </c>
+      <c r="J237" t="n">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K237" t="n">
+        <v>73.68421052631579</v>
+      </c>
+      <c r="L237" t="n">
+        <v>570</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1681</v>
+      </c>
+      <c r="N237" t="n">
+        <v>4176.6</v>
+      </c>
+      <c r="O237" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P237" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F238" t="n">
+        <v>510</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2316.46213997014</v>
+      </c>
+      <c r="H238" t="n">
+        <v>61000</v>
+      </c>
+      <c r="I238" t="n">
+        <v>8548.071480000001</v>
+      </c>
+      <c r="J238" t="n">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K238" t="n">
+        <v>73.68421052631579</v>
+      </c>
+      <c r="L238" t="n">
+        <v>570</v>
+      </c>
+      <c r="M238" t="n">
+        <v>1681</v>
+      </c>
+      <c r="N238" t="n">
+        <v>4176.6</v>
+      </c>
+      <c r="O238" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P238" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F239" t="n">
+        <v>0.03496</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.0435865353962571</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.173059534175358</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.11514</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0.06634</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.10219</v>
+      </c>
+      <c r="O239" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P239" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F240" t="n">
+        <v>0.03496</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.0435865353962571</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.173059534175358</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.11514</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0.06634</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.10219</v>
+      </c>
+      <c r="O240" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P240" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F241" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.275116213821085</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0.58125</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.83774</v>
+      </c>
+      <c r="O241" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P241" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F242" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.275116213821085</v>
+      </c>
+      <c r="H242" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.901</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0.58125</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.83774</v>
+      </c>
+      <c r="O242" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P242" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F243" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.342947029692225</v>
+      </c>
+      <c r="H243" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0.65496</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.91718</v>
+      </c>
+      <c r="O243" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P243" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F244" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.342947029692225</v>
+      </c>
+      <c r="H244" t="n">
+        <v>1.268</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M244" t="n">
+        <v>0.65496</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.91718</v>
+      </c>
+      <c r="O244" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P244" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F245" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.81859649122807</v>
+      </c>
+      <c r="H245" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1.2262</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1.4734</v>
+      </c>
+      <c r="O245" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P245" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F246" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.81859649122807</v>
+      </c>
+      <c r="H246" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M246" t="n">
+        <v>1.2262</v>
+      </c>
+      <c r="N246" t="n">
+        <v>1.4734</v>
+      </c>
+      <c r="O246" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P246" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F247" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.100543859649123</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.22055</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.20808</v>
+      </c>
+      <c r="O247" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P247" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Mowhanau Stream at Footbridge</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F248" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.100543859649123</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.22055</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M248" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.20808</v>
+      </c>
+      <c r="O248" t="n">
+        <v>1762563.938</v>
+      </c>
+      <c r="P248" t="n">
+        <v>5583091.402</v>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Kai Iwi</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>West_2</t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
+++ b/state_results/Rivers/MowhanauStreamatFootbridge_008d7a45db.xlsx
@@ -2705,10 +2705,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.8</v>
+        <v>0.8685</v>
       </c>
       <c r="G28" t="n">
-        <v>1.16560234612883</v>
+        <v>1.17982675211662</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
@@ -4074,13 +4074,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.09</v>
+        <v>1.11788</v>
       </c>
       <c r="G45" t="n">
-        <v>1.4559817778221</v>
+        <v>1.4529863218094</v>
       </c>
       <c r="H45" t="n">
-        <v>4.99462309660186</v>
+        <v>4.36871715255884</v>
       </c>
       <c r="I45" t="n">
         <v>3.88</v>
@@ -5443,13 +5443,13 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.09</v>
+        <v>1.11788</v>
       </c>
       <c r="G62" t="n">
-        <v>1.47668268893099</v>
+        <v>1.47383700571893</v>
       </c>
       <c r="H62" t="n">
-        <v>4.99462309660186</v>
+        <v>4.36871715255884</v>
       </c>
       <c r="I62" t="n">
         <v>3.85</v>
@@ -6815,10 +6815,10 @@
         <v>1.13</v>
       </c>
       <c r="G79" t="n">
-        <v>1.43647568860445</v>
+        <v>1.436621387021</v>
       </c>
       <c r="H79" t="n">
-        <v>4.99462309660186</v>
+        <v>4.36871715255884</v>
       </c>
       <c r="I79" t="n">
         <v>3.79</v>
@@ -8184,10 +8184,10 @@
         <v>1.19</v>
       </c>
       <c r="G96" t="n">
-        <v>1.34242501494889</v>
+        <v>1.34259347874303</v>
       </c>
       <c r="H96" t="n">
-        <v>4.99462309660186</v>
+        <v>4.36871715255884</v>
       </c>
       <c r="I96" t="n">
         <v>3.36</v>
@@ -9553,10 +9553,10 @@
         <v>0.9</v>
       </c>
       <c r="G113" t="n">
-        <v>1.05319083928151</v>
+        <v>1.0368460723735</v>
       </c>
       <c r="H113" t="n">
-        <v>4.99462309660186</v>
+        <v>4.36871715255884</v>
       </c>
       <c r="I113" t="n">
         <v>2.955</v>
@@ -10922,7 +10922,7 @@
         <v>0.484</v>
       </c>
       <c r="G130" t="n">
-        <v>0.874409764037496</v>
+        <v>0.8783837030339841</v>
       </c>
       <c r="H130" t="n">
         <v>3</v>
@@ -12291,7 +12291,7 @@
         <v>0.575</v>
       </c>
       <c r="G147" t="n">
-        <v>0.8400603400296019</v>
+        <v>0.843197660289988</v>
       </c>
       <c r="H147" t="n">
         <v>2</v>
@@ -13903,13 +13903,13 @@
         <v>432</v>
       </c>
       <c r="G167" t="n">
-        <v>2054.80696093178</v>
+        <v>2058.89959775409</v>
       </c>
       <c r="H167" t="n">
         <v>61000</v>
       </c>
       <c r="I167" t="n">
-        <v>8153.20883</v>
+        <v>8275.987929999999</v>
       </c>
       <c r="J167" t="n">
         <v>36.6666666666667</v>
@@ -13988,13 +13988,13 @@
         <v>432</v>
       </c>
       <c r="G168" t="n">
-        <v>2054.80696093178</v>
+        <v>2058.89959775409</v>
       </c>
       <c r="H168" t="n">
         <v>61000</v>
       </c>
       <c r="I168" t="n">
-        <v>8153.20883</v>
+        <v>8275.987929999999</v>
       </c>
       <c r="J168" t="n">
         <v>36.6666666666667</v>
@@ -14073,13 +14073,13 @@
         <v>432</v>
       </c>
       <c r="G169" t="n">
-        <v>2054.80696093178</v>
+        <v>2058.89959775409</v>
       </c>
       <c r="H169" t="n">
         <v>61000</v>
       </c>
       <c r="I169" t="n">
-        <v>8153.20883</v>
+        <v>8275.987929999999</v>
       </c>
       <c r="J169" t="n">
         <v>36.6666666666667</v>
@@ -14158,13 +14158,13 @@
         <v>432</v>
       </c>
       <c r="G170" t="n">
-        <v>2054.80696093178</v>
+        <v>2058.89959775409</v>
       </c>
       <c r="H170" t="n">
         <v>61000</v>
       </c>
       <c r="I170" t="n">
-        <v>8153.20883</v>
+        <v>8275.987929999999</v>
       </c>
       <c r="J170" t="n">
         <v>36.6666666666667</v>
@@ -15272,13 +15272,13 @@
         <v>420</v>
       </c>
       <c r="G184" t="n">
-        <v>2150.14267213401</v>
+        <v>2154.30467568212</v>
       </c>
       <c r="H184" t="n">
         <v>61000</v>
       </c>
       <c r="I184" t="n">
-        <v>8348.529710000001</v>
+        <v>8483.586730000001</v>
       </c>
       <c r="J184" t="n">
         <v>37.2881355932203</v>
@@ -15357,13 +15357,13 @@
         <v>420</v>
       </c>
       <c r="G185" t="n">
-        <v>2150.14267213401</v>
+        <v>2154.30467568212</v>
       </c>
       <c r="H185" t="n">
         <v>61000</v>
       </c>
       <c r="I185" t="n">
-        <v>8348.529710000001</v>
+        <v>8483.586730000001</v>
       </c>
       <c r="J185" t="n">
         <v>37.2881355932203</v>
@@ -15442,13 +15442,13 @@
         <v>420</v>
       </c>
       <c r="G186" t="n">
-        <v>2150.14267213401</v>
+        <v>2154.30467568212</v>
       </c>
       <c r="H186" t="n">
         <v>61000</v>
       </c>
       <c r="I186" t="n">
-        <v>8348.529710000001</v>
+        <v>8483.586730000001</v>
       </c>
       <c r="J186" t="n">
         <v>37.2881355932203</v>
@@ -15527,13 +15527,13 @@
         <v>420</v>
       </c>
       <c r="G187" t="n">
-        <v>2150.14267213401</v>
+        <v>2154.30467568212</v>
       </c>
       <c r="H187" t="n">
         <v>61000</v>
       </c>
       <c r="I187" t="n">
-        <v>8348.529710000001</v>
+        <v>8483.586730000001</v>
       </c>
       <c r="J187" t="n">
         <v>37.2881355932203</v>
@@ -16641,7 +16641,7 @@
         <v>460</v>
       </c>
       <c r="G201" t="n">
-        <v>1872.29521450689</v>
+        <v>1876.457218055</v>
       </c>
       <c r="H201" t="n">
         <v>61000</v>
@@ -16726,7 +16726,7 @@
         <v>460</v>
       </c>
       <c r="G202" t="n">
-        <v>1872.29521450689</v>
+        <v>1876.457218055</v>
       </c>
       <c r="H202" t="n">
         <v>61000</v>
@@ -16811,7 +16811,7 @@
         <v>460</v>
       </c>
       <c r="G203" t="n">
-        <v>1872.29521450689</v>
+        <v>1876.457218055</v>
       </c>
       <c r="H203" t="n">
         <v>61000</v>
@@ -16896,7 +16896,7 @@
         <v>460</v>
       </c>
       <c r="G204" t="n">
-        <v>1872.29521450689</v>
+        <v>1876.457218055</v>
       </c>
       <c r="H204" t="n">
         <v>61000</v>
@@ -18010,7 +18010,7 @@
         <v>510</v>
       </c>
       <c r="G218" t="n">
-        <v>2017.81434484047</v>
+        <v>2022.12238360079</v>
       </c>
       <c r="H218" t="n">
         <v>61000</v>
@@ -18095,7 +18095,7 @@
         <v>510</v>
       </c>
       <c r="G219" t="n">
-        <v>2017.81434484047</v>
+        <v>2022.12238360079</v>
       </c>
       <c r="H219" t="n">
         <v>61000</v>
@@ -18180,7 +18180,7 @@
         <v>510</v>
       </c>
       <c r="G220" t="n">
-        <v>2017.81434484047</v>
+        <v>2022.12238360079</v>
       </c>
       <c r="H220" t="n">
         <v>61000</v>
@@ -18265,7 +18265,7 @@
         <v>510</v>
       </c>
       <c r="G221" t="n">
-        <v>2017.81434484047</v>
+        <v>2022.12238360079</v>
       </c>
       <c r="H221" t="n">
         <v>61000</v>
@@ -19379,13 +19379,13 @@
         <v>510</v>
       </c>
       <c r="G235" t="n">
-        <v>2316.46213997014</v>
+        <v>2253.92453543504</v>
       </c>
       <c r="H235" t="n">
         <v>61000</v>
       </c>
       <c r="I235" t="n">
-        <v>8548.071480000001</v>
+        <v>8707.684310000001</v>
       </c>
       <c r="J235" t="n">
         <v>47.3684210526316</v>
@@ -19464,13 +19464,13 @@
         <v>510</v>
       </c>
       <c r="G236" t="n">
-        <v>2316.46213997014</v>
+        <v>2253.92453543504</v>
       </c>
       <c r="H236" t="n">
         <v>61000</v>
       </c>
       <c r="I236" t="n">
-        <v>8548.071480000001</v>
+        <v>8707.684310000001</v>
       </c>
       <c r="J236" t="n">
         <v>47.3684210526316</v>
@@ -19549,13 +19549,13 @@
         <v>510</v>
       </c>
       <c r="G237" t="n">
-        <v>2316.46213997014</v>
+        <v>2253.92453543504</v>
       </c>
       <c r="H237" t="n">
         <v>61000</v>
       </c>
       <c r="I237" t="n">
-        <v>8548.071480000001</v>
+        <v>8707.684310000001</v>
       </c>
       <c r="J237" t="n">
         <v>47.3684210526316</v>
@@ -19634,13 +19634,13 @@
         <v>510</v>
       </c>
       <c r="G238" t="n">
-        <v>2316.46213997014</v>
+        <v>2253.92453543504</v>
       </c>
       <c r="H238" t="n">
         <v>61000</v>
       </c>
       <c r="I238" t="n">
-        <v>8548.071480000001</v>
+        <v>8707.684310000001</v>
       </c>
       <c r="J238" t="n">
         <v>47.3684210526316</v>
